--- a/project/Data.xlsx
+++ b/project/Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Non-Linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A1B94C-19EF-40F8-9637-59EB363467EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{82B7F6B4-A7D3-44C3-B1F1-DB8C336F11AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,18 +404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF81B4B-DA31-48F1-A047-4A4AF3525339}">
   <dimension ref="A1:B1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1621" workbookViewId="0">
-      <selection activeCell="G1636" sqref="G1636"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
